--- a/Resource/excel/table/K-框架-配置列表-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/K-框架-配置列表-(框架定义,后端维护).xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>描述说明</t>
   </si>
@@ -145,69 +145,45 @@
     <t>class</t>
   </si>
   <si>
-    <t>./config/class.xml</t>
-  </si>
-  <si>
     <t>道具配置表</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>./config/itemcommon.xml</t>
-  </si>
-  <si>
     <t>itemgift</t>
   </si>
   <si>
-    <t>./config/itemgift.xml</t>
-  </si>
-  <si>
     <t>英雄配置表</t>
   </si>
   <si>
     <t>hero</t>
   </si>
   <si>
-    <t>./config/hero.xml</t>
-  </si>
-  <si>
     <t>名字随机配置表</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>./config/name.xml</t>
-  </si>
-  <si>
     <t>匹配配置表</t>
   </si>
   <si>
     <t>match</t>
   </si>
   <si>
-    <t>./config/match.xml</t>
-  </si>
-  <si>
     <t>特效配置表</t>
   </si>
   <si>
     <t>effect</t>
   </si>
   <si>
-    <t>./config/effect.xml</t>
-  </si>
-  <si>
     <t>脚印配置表</t>
   </si>
   <si>
     <t>foot</t>
   </si>
   <si>
-    <t>./config/foot.xml</t>
-  </si>
-  <si>
     <t>relationclass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -216,76 +192,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>./config/relationclass.xml</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>./config/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>achieveclass</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.xml</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>dropclass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>./config/dropclass.xml</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>signinclass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>./config/signinclass.xml</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>heroclass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>./config/heroclass.xml</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>storeclass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>./config/storeclass.xml</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>itemclass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>./config/itemclass.xml</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>属性定义配置表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -294,14 +220,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>./config/taskclass.xml</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml=frameconfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>key=Str,Id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -326,67 +244,71 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>channelstring-&gt;KFConfigData</t>
+    <t>bool-&gt;KFConfigData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32-&gt;KFConfigData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>csharp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主文件配置名( 主文件重新加载后需要重新加载 )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanReload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemcommon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemcommon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml=config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./config/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string-&gt;KFConfigData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool-&gt;KFConfigData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32-&gt;KFConfigData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>csharp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置文件路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主文件配置名( 主文件重新加载后需要重新加载 )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanReload</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClearType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemcommon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemcommon</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -950,14 +872,14 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="46.625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="4" bestFit="1" customWidth="1"/>
@@ -967,13 +889,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -981,13 +903,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
@@ -1001,35 +923,35 @@
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1043,10 +965,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
@@ -1060,22 +982,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1086,10 +1008,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1106,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1126,10 +1048,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1146,10 +1068,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1166,10 +1088,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1186,10 +1108,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -1200,16 +1122,16 @@
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1220,16 +1142,16 @@
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1248,8 +1170,8 @@
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1260,16 +1182,16 @@
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1280,19 +1202,19 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>13</v>
+      <c r="D18" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -1303,16 +1225,16 @@
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -1323,16 +1245,16 @@
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1343,16 +1265,16 @@
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -1363,16 +1285,16 @@
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -1383,16 +1305,16 @@
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>

--- a/Resource/excel/table/K-框架-配置列表-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/K-框架-配置列表-(框架定义,后端维护).xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>描述说明</t>
   </si>
@@ -289,10 +289,6 @@
   </si>
   <si>
     <t>ClearType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemcommon</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -869,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -889,7 +885,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>30</v>
@@ -932,7 +928,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>35</v>
@@ -1011,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1031,7 +1027,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1051,7 +1047,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1071,7 +1067,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1091,7 +1087,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1111,7 +1107,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -1131,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1151,7 +1147,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1171,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1187,54 +1183,54 @@
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -1245,16 +1241,16 @@
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1265,16 +1261,16 @@
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -1285,41 +1281,21 @@
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Resource/excel/table/K-框架-配置列表-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/K-框架-配置列表-(框架定义,后端维护).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -196,10 +196,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>signinclass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>heroclass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -305,6 +301,10 @@
   </si>
   <si>
     <t>string-&gt;KFConfigData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>signclass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -868,7 +868,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -885,13 +885,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
@@ -919,35 +919,35 @@
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -961,10 +961,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
@@ -978,22 +978,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1007,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1064,10 +1064,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1084,10 +1084,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -1118,16 +1118,16 @@
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1138,16 +1138,16 @@
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1187,10 +1187,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -1230,7 +1230,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
